--- a/config_vivo/提审配置/game_module_config.xlsx
+++ b/config_vivo/提审配置/game_module_config.xlsx
@@ -3477,10 +3477,10 @@
   <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D163" sqref="D163"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="C32:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4318,7 +4318,7 @@
         <v>98</v>
       </c>
       <c r="E32" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -4344,7 +4344,7 @@
         <v>101</v>
       </c>
       <c r="E33" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -4370,7 +4370,7 @@
         <v>104</v>
       </c>
       <c r="E34" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -9414,7 +9414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5">
         <v>234</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5">
         <v>238</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5">
         <v>242</v>
       </c>

--- a/config_vivo/提审配置/game_module_config.xlsx
+++ b/config_vivo/提审配置/game_module_config.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$244</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -2859,10 +2859,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼开炮送红包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>by_bossts</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3021,6 +3017,10 @@
   </si>
   <si>
     <t>by3d_act_zhuanpan</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼开炮送红包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3477,10 +3477,10 @@
   <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="C32:E35"/>
+      <selection pane="bottomRight" activeCell="C234" sqref="C234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4879,7 +4879,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>160</v>
@@ -6145,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
@@ -7248,7 +7248,7 @@
         <v>429</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>430</v>
@@ -7289,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
@@ -7731,7 +7731,7 @@
         <v>1</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
@@ -8772,7 +8772,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C207" t="s">
         <v>571</v>
@@ -9471,13 +9471,13 @@
         <v>670</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>673</v>
+        <v>707</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>672</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -9494,25 +9494,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="C238" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="C238" s="9" t="s">
+      <c r="D238" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="D238" s="9" t="s">
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
         <v>676</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="I238" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
@@ -9520,25 +9520,25 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="D239" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="C239" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="D239" s="9" t="s">
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
         <v>679</v>
-      </c>
-      <c r="E239">
-        <v>0</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>1</v>
-      </c>
-      <c r="I239" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9546,25 +9546,25 @@
         <v>239</v>
       </c>
       <c r="B240" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="I240" t="s">
         <v>685</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>1</v>
-      </c>
-      <c r="I240" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9572,25 +9572,25 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="C241" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="D241" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="I241" s="9" t="s">
         <v>689</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>1</v>
-      </c>
-      <c r="I241" s="9" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9598,25 +9598,25 @@
         <v>241</v>
       </c>
       <c r="B242" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="C242" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="D242" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="D242" s="9" t="s">
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="I242" s="9" t="s">
         <v>693</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="I242" s="9" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
@@ -9624,25 +9624,25 @@
         <v>242</v>
       </c>
       <c r="B243" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="C243" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="C243" s="9" t="s">
+      <c r="D243" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="D243" s="9" t="s">
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="I243" s="9" t="s">
         <v>701</v>
-      </c>
-      <c r="E243">
-        <v>0</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>1</v>
-      </c>
-      <c r="I243" s="9" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9650,25 +9650,25 @@
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="C244" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="C244" s="9" t="s">
+      <c r="D244" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="D244" s="9" t="s">
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="I244" s="9" t="s">
         <v>705</v>
-      </c>
-      <c r="E244">
-        <v>1</v>
-      </c>
-      <c r="F244">
-        <v>1</v>
-      </c>
-      <c r="G244">
-        <v>1</v>
-      </c>
-      <c r="I244" s="9" t="s">
-        <v>706</v>
       </c>
     </row>
   </sheetData>

--- a/config_vivo/提审配置/game_module_config.xlsx
+++ b/config_vivo/提审配置/game_module_config.xlsx
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$244</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="730">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3021,6 +3021,92 @@
   </si>
   <si>
     <t>3D捕鱼开炮送红包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_023_vip2ztlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip2直通礼包key</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_023_VIP2ZTLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_023_vip3ztlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip3直通礼包key</t>
+  </si>
+  <si>
+    <t>Act_023_VIP3ZTLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_023_vip4ztlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip4直通礼包key</t>
+  </si>
+  <si>
+    <t>Act_023_VIP4ZTLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_tcyx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼不开炮踢出游戏</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYTCYXManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_change_head_and_name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置头像和改变昵称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSChangeHeadAndNameManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_zdkp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼自动开炮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DZDKPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_ad_mfcj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告点4：免费抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DADMFCJManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3150,7 +3236,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3194,6 +3280,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3474,13 +3563,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C163" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C234" sqref="C234"/>
+      <selection pane="bottomRight" activeCell="F253" sqref="F253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9669,6 +9758,188 @@
       </c>
       <c r="I244" s="9" t="s">
         <v>705</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A245" s="7">
+        <v>244</v>
+      </c>
+      <c r="B245" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="C245" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="D245" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="E245" s="2">
+        <v>0</v>
+      </c>
+      <c r="F245" s="2">
+        <v>1</v>
+      </c>
+      <c r="G245" s="2">
+        <v>1</v>
+      </c>
+      <c r="I245" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A246" s="7">
+        <v>245</v>
+      </c>
+      <c r="B246" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="C246" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="D246" s="15" t="s">
+        <v>713</v>
+      </c>
+      <c r="E246" s="2">
+        <v>0</v>
+      </c>
+      <c r="F246" s="2">
+        <v>1</v>
+      </c>
+      <c r="G246" s="2">
+        <v>1</v>
+      </c>
+      <c r="I246" s="9" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A247" s="7">
+        <v>246</v>
+      </c>
+      <c r="B247" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="C247" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="D247" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="E247" s="2">
+        <v>0</v>
+      </c>
+      <c r="F247" s="2">
+        <v>1</v>
+      </c>
+      <c r="G247" s="2">
+        <v>1</v>
+      </c>
+      <c r="I247" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A248" s="7">
+        <v>247</v>
+      </c>
+      <c r="B248" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="C248" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="D248" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="E248" s="2">
+        <v>1</v>
+      </c>
+      <c r="F248" s="2">
+        <v>1</v>
+      </c>
+      <c r="G248" s="2">
+        <v>1</v>
+      </c>
+      <c r="I248" s="9" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A249" s="7">
+        <v>248</v>
+      </c>
+      <c r="B249" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="C249" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="D249" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="E249" s="2">
+        <v>0</v>
+      </c>
+      <c r="F249" s="2">
+        <v>1</v>
+      </c>
+      <c r="G249" s="2">
+        <v>1</v>
+      </c>
+      <c r="I249" s="9" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A250" s="7">
+        <v>249</v>
+      </c>
+      <c r="B250" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="C250" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="D250" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="E250" s="2">
+        <v>1</v>
+      </c>
+      <c r="F250" s="2">
+        <v>1</v>
+      </c>
+      <c r="G250" s="2">
+        <v>1</v>
+      </c>
+      <c r="I250" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A251" s="7">
+        <v>250</v>
+      </c>
+      <c r="B251" s="15" t="s">
+        <v>727</v>
+      </c>
+      <c r="C251" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="D251" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="E251" s="2">
+        <v>0</v>
+      </c>
+      <c r="F251" s="2">
+        <v>1</v>
+      </c>
+      <c r="G251" s="2">
+        <v>1</v>
+      </c>
+      <c r="I251" s="9" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
